--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.020221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.020221.xlsx_with_dialog_acts.xlsx
@@ -1277,12 +1277,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2163,12 +2163,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2843,12 +2843,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4367,12 +4367,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4829,12 +4829,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5501,12 +5501,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5627,12 +5627,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5795,12 +5795,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5837,12 +5837,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7391,12 +7391,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8533,12 +8533,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9549,12 +9549,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10351,12 +10351,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11573,12 +11573,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11745,12 +11745,12 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11871,12 +11871,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13051,12 +13051,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13093,12 +13093,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13303,12 +13303,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14101,12 +14101,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14311,12 +14311,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14811,12 +14811,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -16015,12 +16015,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16055,12 +16055,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16335,12 +16335,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16655,12 +16655,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16775,12 +16775,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16895,12 +16895,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17015,12 +17015,12 @@
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17095,12 +17095,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17295,12 +17295,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17655,12 +17655,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17975,12 +17975,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18015,12 +18015,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18455,12 +18455,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18695,12 +18695,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19655,12 +19655,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
